--- a/fish/weight_pred/df2.xlsx
+++ b/fish/weight_pred/df2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Index</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Cluster</t>
+  </si>
+  <si>
+    <t>cluster</t>
   </si>
 </sst>
 </file>
@@ -395,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H475"/>
+  <dimension ref="A1:I475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +429,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2">
         <v>51.45</v>
       </c>
@@ -449,8 +455,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3">
         <v>37.15</v>
       </c>
@@ -472,8 +481,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4">
         <v>47.26</v>
       </c>
@@ -495,8 +507,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5">
         <v>36.67</v>
       </c>
@@ -518,8 +533,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6">
         <v>45.48</v>
       </c>
@@ -541,8 +559,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7">
         <v>36.77</v>
       </c>
@@ -564,8 +585,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8">
         <v>32.79</v>
       </c>
@@ -587,8 +611,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9">
         <v>35.52</v>
       </c>
@@ -610,8 +637,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10">
         <v>35.58</v>
       </c>
@@ -633,8 +663,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11">
         <v>42.88</v>
       </c>
@@ -656,8 +689,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12">
         <v>44.45</v>
       </c>
@@ -679,8 +715,11 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13">
         <v>51.9</v>
       </c>
@@ -702,8 +741,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14">
         <v>42.07</v>
       </c>
@@ -725,8 +767,11 @@
       <c r="H14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15">
         <v>34.62</v>
       </c>
@@ -748,8 +793,11 @@
       <c r="H15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16">
         <v>41.14</v>
       </c>
@@ -771,8 +819,11 @@
       <c r="H16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>36.82</v>
       </c>
@@ -794,8 +845,11 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>40.08</v>
       </c>
@@ -817,8 +871,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>37.13</v>
       </c>
@@ -840,8 +897,11 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>31.52</v>
       </c>
@@ -863,8 +923,11 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21">
         <v>42.75</v>
       </c>
@@ -886,8 +949,11 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22">
         <v>47.4</v>
       </c>
@@ -909,8 +975,11 @@
       <c r="H22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23">
         <v>36.88</v>
       </c>
@@ -932,8 +1001,11 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24">
         <v>39.65</v>
       </c>
@@ -955,8 +1027,11 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:8">
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25">
         <v>36.88</v>
       </c>
@@ -978,8 +1053,11 @@
       <c r="H25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8">
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26">
         <v>36.02</v>
       </c>
@@ -1001,8 +1079,11 @@
       <c r="H26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27">
         <v>42.74</v>
       </c>
@@ -1024,8 +1105,11 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28">
         <v>39.54</v>
       </c>
@@ -1047,8 +1131,11 @@
       <c r="H28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8">
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29">
         <v>31.14</v>
       </c>
@@ -1070,8 +1157,11 @@
       <c r="H29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8">
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30">
         <v>38.2</v>
       </c>
@@ -1093,8 +1183,11 @@
       <c r="H30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:8">
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
       <c r="B31">
         <v>43.45</v>
       </c>
@@ -1116,8 +1209,11 @@
       <c r="H31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32">
         <v>41.04</v>
       </c>
@@ -1139,8 +1235,11 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33">
         <v>37.94</v>
       </c>
@@ -1162,8 +1261,11 @@
       <c r="H33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34">
         <v>46.6</v>
       </c>
@@ -1185,8 +1287,11 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35">
         <v>34.12</v>
       </c>
@@ -1208,8 +1313,11 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36">
         <v>39.95</v>
       </c>
@@ -1231,8 +1339,11 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37">
         <v>31.5</v>
       </c>
@@ -1254,8 +1365,11 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38">
         <v>47.05</v>
       </c>
@@ -1277,8 +1391,11 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39">
         <v>44.15</v>
       </c>
@@ -1300,8 +1417,11 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40">
         <v>35.63</v>
       </c>
@@ -1323,8 +1443,11 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41">
         <v>30.74</v>
       </c>
@@ -1346,8 +1469,11 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42">
         <v>30.27</v>
       </c>
@@ -1369,8 +1495,11 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43">
         <v>36.84</v>
       </c>
@@ -1392,8 +1521,11 @@
       <c r="H43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44">
         <v>37.46</v>
       </c>
@@ -1415,8 +1547,11 @@
       <c r="H44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8">
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45">
         <v>37.55</v>
       </c>
@@ -1438,8 +1573,11 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46">
         <v>49.38</v>
       </c>
@@ -1461,8 +1599,11 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8">
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
       <c r="B47">
         <v>40.94</v>
       </c>
@@ -1484,8 +1625,11 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8">
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48">
         <v>41.83</v>
       </c>
@@ -1507,8 +1651,11 @@
       <c r="H48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8">
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
       <c r="B49">
         <v>33.96</v>
       </c>
@@ -1530,8 +1677,11 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50">
         <v>41.45</v>
       </c>
@@ -1553,8 +1703,11 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51">
         <v>33.14</v>
       </c>
@@ -1576,8 +1729,11 @@
       <c r="H51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8">
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52">
         <v>43.91</v>
       </c>
@@ -1599,8 +1755,11 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:8">
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53">
         <v>35.46</v>
       </c>
@@ -1622,8 +1781,11 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8">
+      <c r="I53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54">
         <v>38.36</v>
       </c>
@@ -1645,8 +1807,11 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="I54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55">
         <v>35.8</v>
       </c>
@@ -1668,8 +1833,11 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8">
+      <c r="I55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56">
         <v>44.78</v>
       </c>
@@ -1691,8 +1859,11 @@
       <c r="H56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="I56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57">
         <v>44.96</v>
       </c>
@@ -1714,8 +1885,11 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58">
         <v>32.24</v>
       </c>
@@ -1737,8 +1911,11 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:8">
+      <c r="I58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59">
         <v>43.39</v>
       </c>
@@ -1760,8 +1937,11 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:8">
+      <c r="I59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60">
         <v>30.74</v>
       </c>
@@ -1783,8 +1963,11 @@
       <c r="H60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:8">
+      <c r="I60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
       <c r="B61">
         <v>43.13</v>
       </c>
@@ -1806,8 +1989,11 @@
       <c r="H61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:8">
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62">
         <v>47.87</v>
       </c>
@@ -1829,8 +2015,11 @@
       <c r="H62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:8">
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63">
         <v>42.9</v>
       </c>
@@ -1852,8 +2041,11 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:8">
+      <c r="I63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64">
         <v>34.84</v>
       </c>
@@ -1875,8 +2067,11 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:8">
+      <c r="I64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65">
         <v>34.64</v>
       </c>
@@ -1898,8 +2093,11 @@
       <c r="H65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="I65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66">
         <v>39.4</v>
       </c>
@@ -1921,8 +2119,11 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="I66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67">
         <v>40.84</v>
       </c>
@@ -1944,8 +2145,11 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:8">
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68">
         <v>33.01</v>
       </c>
@@ -1967,8 +2171,11 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:8">
+      <c r="I68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69">
         <v>38.93</v>
       </c>
@@ -1990,8 +2197,11 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:8">
+      <c r="I69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70">
         <v>48.7</v>
       </c>
@@ -2013,8 +2223,11 @@
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71">
         <v>49.42</v>
       </c>
@@ -2036,8 +2249,11 @@
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:8">
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72">
         <v>35.24</v>
       </c>
@@ -2059,8 +2275,11 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:8">
+      <c r="I72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73">
         <v>36.76</v>
       </c>
@@ -2082,8 +2301,11 @@
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74">
         <v>34.82</v>
       </c>
@@ -2105,8 +2327,11 @@
       <c r="H74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:8">
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75">
         <v>36.99</v>
       </c>
@@ -2128,8 +2353,11 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:8">
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76">
         <v>41.31</v>
       </c>
@@ -2151,8 +2379,11 @@
       <c r="H76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:8">
+      <c r="I76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
       <c r="B77">
         <v>40.74</v>
       </c>
@@ -2174,8 +2405,11 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
+      <c r="I77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78">
         <v>43.28</v>
       </c>
@@ -2197,8 +2431,11 @@
       <c r="H78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:8">
+      <c r="I78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
       <c r="B79">
         <v>39.39</v>
       </c>
@@ -2220,8 +2457,11 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80">
         <v>31.2</v>
       </c>
@@ -2243,8 +2483,11 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:8">
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81">
         <v>43.79</v>
       </c>
@@ -2266,8 +2509,11 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:8">
+      <c r="I81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82">
         <v>40.88</v>
       </c>
@@ -2289,8 +2535,11 @@
       <c r="H82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:8">
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83">
         <v>37.78</v>
       </c>
@@ -2312,8 +2561,11 @@
       <c r="H83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:8">
+      <c r="I83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84">
         <v>45.69</v>
       </c>
@@ -2335,8 +2587,11 @@
       <c r="H84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:8">
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85">
         <v>48.56</v>
       </c>
@@ -2358,8 +2613,11 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:8">
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86">
         <v>37.62</v>
       </c>
@@ -2381,8 +2639,11 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:8">
+      <c r="I86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87">
         <v>39.07</v>
       </c>
@@ -2404,8 +2665,11 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:8">
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88">
         <v>42.71</v>
       </c>
@@ -2427,8 +2691,11 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:8">
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89">
         <v>34.88</v>
       </c>
@@ -2450,8 +2717,11 @@
       <c r="H89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:8">
+      <c r="I89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90">
         <v>37.75</v>
       </c>
@@ -2473,8 +2743,11 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:8">
+      <c r="I90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9">
       <c r="B91">
         <v>34.94</v>
       </c>
@@ -2496,8 +2769,11 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:8">
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92">
         <v>45.93</v>
       </c>
@@ -2519,8 +2795,11 @@
       <c r="H92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:8">
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93">
         <v>46.58</v>
       </c>
@@ -2542,8 +2821,11 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:8">
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
       <c r="B94">
         <v>50.31</v>
       </c>
@@ -2565,8 +2847,11 @@
       <c r="H94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:8">
+      <c r="I94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95">
         <v>43.52</v>
       </c>
@@ -2588,8 +2873,11 @@
       <c r="H95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:8">
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96">
         <v>43.45</v>
       </c>
@@ -2611,8 +2899,11 @@
       <c r="H96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:8">
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97">
         <v>34.66</v>
       </c>
@@ -2634,8 +2925,11 @@
       <c r="H97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:8">
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98">
         <v>43.2</v>
       </c>
@@ -2657,8 +2951,11 @@
       <c r="H98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:8">
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99">
         <v>51.59</v>
       </c>
@@ -2680,8 +2977,11 @@
       <c r="H99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="2:8">
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100">
         <v>36.88</v>
       </c>
@@ -2703,8 +3003,11 @@
       <c r="H100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:8">
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101">
         <v>45.39</v>
       </c>
@@ -2726,8 +3029,11 @@
       <c r="H101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="2:8">
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102">
         <v>40.06</v>
       </c>
@@ -2749,8 +3055,11 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103">
         <v>37.38</v>
       </c>
@@ -2772,8 +3081,11 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104">
         <v>38.55</v>
       </c>
@@ -2795,8 +3107,11 @@
       <c r="H104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:8">
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105">
         <v>38.98</v>
       </c>
@@ -2818,8 +3133,11 @@
       <c r="H105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:8">
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106">
         <v>37.97</v>
       </c>
@@ -2841,8 +3159,11 @@
       <c r="H106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:8">
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107">
         <v>37.45</v>
       </c>
@@ -2864,8 +3185,11 @@
       <c r="H107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:8">
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108">
         <v>39.69</v>
       </c>
@@ -2887,8 +3211,11 @@
       <c r="H108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:8">
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109">
         <v>39.94</v>
       </c>
@@ -2910,8 +3237,11 @@
       <c r="H109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:8">
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110">
         <v>48.44</v>
       </c>
@@ -2933,8 +3263,11 @@
       <c r="H110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:8">
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111">
         <v>43.14</v>
       </c>
@@ -2956,8 +3289,11 @@
       <c r="H111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:8">
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
       <c r="B112">
         <v>37.35</v>
       </c>
@@ -2979,8 +3315,11 @@
       <c r="H112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:8">
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113">
         <v>47.32</v>
       </c>
@@ -3002,8 +3341,11 @@
       <c r="H113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:8">
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114">
         <v>39.99</v>
       </c>
@@ -3025,8 +3367,11 @@
       <c r="H114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:8">
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
       <c r="B115">
         <v>34.22</v>
       </c>
@@ -3048,8 +3393,11 @@
       <c r="H115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:8">
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116">
         <v>33.04</v>
       </c>
@@ -3071,8 +3419,11 @@
       <c r="H116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:8">
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
       <c r="B117">
         <v>36.89</v>
       </c>
@@ -3094,8 +3445,11 @@
       <c r="H117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:8">
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
       <c r="B118">
         <v>34.78</v>
       </c>
@@ -3117,8 +3471,11 @@
       <c r="H118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:8">
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
       <c r="B119">
         <v>30.8</v>
       </c>
@@ -3140,8 +3497,11 @@
       <c r="H119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:8">
+      <c r="I119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
       <c r="B120">
         <v>37.07</v>
       </c>
@@ -3163,8 +3523,11 @@
       <c r="H120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:8">
+      <c r="I120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
       <c r="B121">
         <v>36.23</v>
       </c>
@@ -3186,8 +3549,11 @@
       <c r="H121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:8">
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
       <c r="B122">
         <v>100.4</v>
       </c>
@@ -3209,8 +3575,11 @@
       <c r="H122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:8">
+      <c r="I122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
       <c r="B123">
         <v>77.45</v>
       </c>
@@ -3232,8 +3601,11 @@
       <c r="H123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:8">
+      <c r="I123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
       <c r="B124">
         <v>89.55</v>
       </c>
@@ -3255,8 +3627,11 @@
       <c r="H124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:8">
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
       <c r="B125">
         <v>88.03</v>
       </c>
@@ -3278,8 +3653,11 @@
       <c r="H125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:8">
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9">
       <c r="B126">
         <v>96.95999999999999</v>
       </c>
@@ -3301,8 +3679,11 @@
       <c r="H126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:8">
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9">
       <c r="B127">
         <v>73.13</v>
       </c>
@@ -3324,8 +3705,11 @@
       <c r="H127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:8">
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9">
       <c r="B128">
         <v>91</v>
       </c>
@@ -3347,8 +3731,11 @@
       <c r="H128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="2:8">
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9">
       <c r="B129">
         <v>86.62</v>
       </c>
@@ -3370,8 +3757,11 @@
       <c r="H129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="2:8">
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9">
       <c r="B130">
         <v>77.90000000000001</v>
       </c>
@@ -3393,8 +3783,11 @@
       <c r="H130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="2:8">
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9">
       <c r="B131">
         <v>58.33</v>
       </c>
@@ -3416,8 +3809,11 @@
       <c r="H131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="2:8">
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9">
       <c r="B132">
         <v>71.70999999999999</v>
       </c>
@@ -3439,8 +3835,11 @@
       <c r="H132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="2:8">
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9">
       <c r="B133">
         <v>78.56</v>
       </c>
@@ -3462,8 +3861,11 @@
       <c r="H133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="2:8">
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9">
       <c r="B134">
         <v>75.25</v>
       </c>
@@ -3485,8 +3887,11 @@
       <c r="H134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="2:8">
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9">
       <c r="B135">
         <v>89.86</v>
       </c>
@@ -3508,8 +3913,11 @@
       <c r="H135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="2:8">
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9">
       <c r="B136">
         <v>91.72</v>
       </c>
@@ -3531,8 +3939,11 @@
       <c r="H136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="2:8">
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9">
       <c r="B137">
         <v>79.59</v>
       </c>
@@ -3554,8 +3965,11 @@
       <c r="H137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="2:8">
+      <c r="I137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9">
       <c r="B138">
         <v>111.36</v>
       </c>
@@ -3577,8 +3991,11 @@
       <c r="H138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="2:8">
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9">
       <c r="B139">
         <v>104.03</v>
       </c>
@@ -3600,8 +4017,11 @@
       <c r="H139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="2:8">
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9">
       <c r="B140">
         <v>66.16</v>
       </c>
@@ -3623,8 +4043,11 @@
       <c r="H140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="2:8">
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9">
       <c r="B141">
         <v>85.5</v>
       </c>
@@ -3646,8 +4069,11 @@
       <c r="H141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="2:8">
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9">
       <c r="B142">
         <v>77.55</v>
       </c>
@@ -3669,8 +4095,11 @@
       <c r="H142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="2:8">
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9">
       <c r="B143">
         <v>81.7</v>
       </c>
@@ -3692,8 +4121,11 @@
       <c r="H143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="2:8">
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9">
       <c r="B144">
         <v>79.25</v>
       </c>
@@ -3715,8 +4147,11 @@
       <c r="H144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:8">
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9">
       <c r="B145">
         <v>92.97</v>
       </c>
@@ -3738,8 +4173,11 @@
       <c r="H145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="2:8">
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9">
       <c r="B146">
         <v>87.3</v>
       </c>
@@ -3761,8 +4199,11 @@
       <c r="H146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:8">
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9">
       <c r="B147">
         <v>68.67</v>
       </c>
@@ -3784,8 +4225,11 @@
       <c r="H147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:8">
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9">
       <c r="B148">
         <v>112.96</v>
       </c>
@@ -3807,8 +4251,11 @@
       <c r="H148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:8">
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9">
       <c r="B149">
         <v>84.94</v>
       </c>
@@ -3830,8 +4277,11 @@
       <c r="H149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:8">
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9">
       <c r="B150">
         <v>93</v>
       </c>
@@ -3853,8 +4303,11 @@
       <c r="H150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:8">
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9">
       <c r="B151">
         <v>65.55</v>
       </c>
@@ -3876,8 +4329,11 @@
       <c r="H151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:8">
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9">
       <c r="B152">
         <v>90.75</v>
       </c>
@@ -3899,8 +4355,11 @@
       <c r="H152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:8">
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9">
       <c r="B153">
         <v>82.33</v>
       </c>
@@ -3922,8 +4381,11 @@
       <c r="H153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:8">
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9">
       <c r="B154">
         <v>101.45</v>
       </c>
@@ -3945,8 +4407,11 @@
       <c r="H154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:8">
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9">
       <c r="B155">
         <v>71.75</v>
       </c>
@@ -3968,8 +4433,11 @@
       <c r="H155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="2:8">
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9">
       <c r="B156">
         <v>82.94</v>
       </c>
@@ -3991,8 +4459,11 @@
       <c r="H156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:8">
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9">
       <c r="B157">
         <v>74.3</v>
       </c>
@@ -4014,8 +4485,11 @@
       <c r="H157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:8">
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9">
       <c r="B158">
         <v>74.06</v>
       </c>
@@ -4037,8 +4511,11 @@
       <c r="H158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:8">
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9">
       <c r="B159">
         <v>85.56</v>
       </c>
@@ -4060,8 +4537,11 @@
       <c r="H159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:8">
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9">
       <c r="B160">
         <v>79.73999999999999</v>
       </c>
@@ -4083,8 +4563,11 @@
       <c r="H160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="2:8">
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9">
       <c r="B161">
         <v>88.55</v>
       </c>
@@ -4106,8 +4589,11 @@
       <c r="H161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="2:8">
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9">
       <c r="B162">
         <v>68.87</v>
       </c>
@@ -4129,8 +4615,11 @@
       <c r="H162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="2:8">
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9">
       <c r="B163">
         <v>78.8</v>
       </c>
@@ -4152,8 +4641,11 @@
       <c r="H163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:8">
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9">
       <c r="B164">
         <v>95.97</v>
       </c>
@@ -4175,8 +4667,11 @@
       <c r="H164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:8">
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9">
       <c r="B165">
         <v>76.40000000000001</v>
       </c>
@@ -4198,8 +4693,11 @@
       <c r="H165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:8">
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9">
       <c r="B166">
         <v>86.34999999999999</v>
       </c>
@@ -4221,8 +4719,11 @@
       <c r="H166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:8">
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9">
       <c r="B167">
         <v>80.64</v>
       </c>
@@ -4244,8 +4745,11 @@
       <c r="H167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="2:8">
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9">
       <c r="B168">
         <v>97.31</v>
       </c>
@@ -4267,8 +4771,11 @@
       <c r="H168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:8">
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9">
       <c r="B169">
         <v>82.45999999999999</v>
       </c>
@@ -4290,8 +4797,11 @@
       <c r="H169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="2:8">
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9">
       <c r="B170">
         <v>61.86</v>
       </c>
@@ -4313,8 +4823,11 @@
       <c r="H170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="2:8">
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9">
       <c r="B171">
         <v>68.36</v>
       </c>
@@ -4336,8 +4849,11 @@
       <c r="H171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="2:8">
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9">
       <c r="B172">
         <v>87.37</v>
       </c>
@@ -4359,8 +4875,11 @@
       <c r="H172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="2:8">
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9">
       <c r="B173">
         <v>89.09999999999999</v>
       </c>
@@ -4382,8 +4901,11 @@
       <c r="H173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="2:8">
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9">
       <c r="B174">
         <v>71.08</v>
       </c>
@@ -4405,8 +4927,11 @@
       <c r="H174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="2:8">
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9">
       <c r="B175">
         <v>78.79000000000001</v>
       </c>
@@ -4428,8 +4953,11 @@
       <c r="H175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="2:8">
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9">
       <c r="B176">
         <v>81.56999999999999</v>
       </c>
@@ -4451,8 +4979,11 @@
       <c r="H176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="2:8">
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9">
       <c r="B177">
         <v>79.25</v>
       </c>
@@ -4474,8 +5005,11 @@
       <c r="H177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="2:8">
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9">
       <c r="B178">
         <v>92.3</v>
       </c>
@@ -4497,8 +5031,11 @@
       <c r="H178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="2:8">
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9">
       <c r="B179">
         <v>82.81</v>
       </c>
@@ -4520,8 +5057,11 @@
       <c r="H179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="2:8">
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9">
       <c r="B180">
         <v>72.98</v>
       </c>
@@ -4543,8 +5083,11 @@
       <c r="H180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="2:8">
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9">
       <c r="B181">
         <v>77.45999999999999</v>
       </c>
@@ -4566,8 +5109,11 @@
       <c r="H181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:8">
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9">
       <c r="B182">
         <v>68.14</v>
       </c>
@@ -4589,8 +5135,11 @@
       <c r="H182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="2:8">
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9">
       <c r="B183">
         <v>83.48999999999999</v>
       </c>
@@ -4612,8 +5161,11 @@
       <c r="H183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="2:8">
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9">
       <c r="B184">
         <v>81.31999999999999</v>
       </c>
@@ -4635,8 +5187,11 @@
       <c r="H184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="2:8">
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9">
       <c r="B185">
         <v>76.63</v>
       </c>
@@ -4658,8 +5213,11 @@
       <c r="H185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="2:8">
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9">
       <c r="B186">
         <v>85.84</v>
       </c>
@@ -4681,8 +5239,11 @@
       <c r="H186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="2:8">
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9">
       <c r="B187">
         <v>86.69</v>
       </c>
@@ -4704,8 +5265,11 @@
       <c r="H187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="2:8">
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9">
       <c r="B188">
         <v>93.90000000000001</v>
       </c>
@@ -4727,8 +5291,11 @@
       <c r="H188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="2:8">
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9">
       <c r="B189">
         <v>72.86</v>
       </c>
@@ -4750,8 +5317,11 @@
       <c r="H189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:8">
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9">
       <c r="B190">
         <v>61.18</v>
       </c>
@@ -4773,8 +5343,11 @@
       <c r="H190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="2:8">
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9">
       <c r="B191">
         <v>73.34</v>
       </c>
@@ -4796,8 +5369,11 @@
       <c r="H191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="2:8">
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9">
       <c r="B192">
         <v>70.45</v>
       </c>
@@ -4819,8 +5395,11 @@
       <c r="H192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="2:8">
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9">
       <c r="B193">
         <v>88.76000000000001</v>
       </c>
@@ -4842,8 +5421,11 @@
       <c r="H193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="2:8">
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9">
       <c r="B194">
         <v>79.43000000000001</v>
       </c>
@@ -4865,8 +5447,11 @@
       <c r="H194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="2:8">
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9">
       <c r="B195">
         <v>73.54000000000001</v>
       </c>
@@ -4888,8 +5473,11 @@
       <c r="H195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="2:8">
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9">
       <c r="B196">
         <v>63.84</v>
       </c>
@@ -4911,8 +5499,11 @@
       <c r="H196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="2:8">
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9">
       <c r="B197">
         <v>95.55</v>
       </c>
@@ -4934,8 +5525,11 @@
       <c r="H197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="2:8">
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9">
       <c r="B198">
         <v>71.81999999999999</v>
       </c>
@@ -4957,8 +5551,11 @@
       <c r="H198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="2:8">
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9">
       <c r="B199">
         <v>75.29000000000001</v>
       </c>
@@ -4980,8 +5577,11 @@
       <c r="H199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="2:8">
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9">
       <c r="B200">
         <v>67.42</v>
       </c>
@@ -5003,8 +5603,11 @@
       <c r="H200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="2:8">
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9">
       <c r="B201">
         <v>93.31</v>
       </c>
@@ -5026,8 +5629,11 @@
       <c r="H201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="2:8">
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9">
       <c r="B202">
         <v>70.65000000000001</v>
       </c>
@@ -5049,8 +5655,11 @@
       <c r="H202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="2:8">
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9">
       <c r="B203">
         <v>102.13</v>
       </c>
@@ -5072,8 +5681,11 @@
       <c r="H203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="2:8">
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9">
       <c r="B204">
         <v>105.54</v>
       </c>
@@ -5095,8 +5707,11 @@
       <c r="H204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="2:8">
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9">
       <c r="B205">
         <v>93.52</v>
       </c>
@@ -5118,8 +5733,11 @@
       <c r="H205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="2:8">
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9">
       <c r="B206">
         <v>64.88</v>
       </c>
@@ -5141,8 +5759,11 @@
       <c r="H206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="2:8">
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9">
       <c r="B207">
         <v>77.28</v>
       </c>
@@ -5164,8 +5785,11 @@
       <c r="H207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="2:8">
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9">
       <c r="B208">
         <v>72.7</v>
       </c>
@@ -5187,8 +5811,11 @@
       <c r="H208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="2:8">
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9">
       <c r="B209">
         <v>91.55</v>
       </c>
@@ -5210,8 +5837,11 @@
       <c r="H209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="2:8">
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9">
       <c r="B210">
         <v>91.02</v>
       </c>
@@ -5233,8 +5863,11 @@
       <c r="H210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="2:8">
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9">
       <c r="B211">
         <v>61.82</v>
       </c>
@@ -5256,8 +5889,11 @@
       <c r="H211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="2:8">
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9">
       <c r="B212">
         <v>69.97</v>
       </c>
@@ -5279,8 +5915,11 @@
       <c r="H212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="2:8">
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9">
       <c r="B213">
         <v>74.44</v>
       </c>
@@ -5302,8 +5941,11 @@
       <c r="H213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="2:8">
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9">
       <c r="B214">
         <v>57.04</v>
       </c>
@@ -5325,8 +5967,11 @@
       <c r="H214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="2:8">
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9">
       <c r="B215">
         <v>93.43000000000001</v>
       </c>
@@ -5348,8 +5993,11 @@
       <c r="H215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="2:8">
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9">
       <c r="B216">
         <v>85.55</v>
       </c>
@@ -5371,8 +6019,11 @@
       <c r="H216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="2:8">
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9">
       <c r="B217">
         <v>74.88</v>
       </c>
@@ -5394,8 +6045,11 @@
       <c r="H217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="2:8">
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9">
       <c r="B218">
         <v>74.81999999999999</v>
       </c>
@@ -5417,8 +6071,11 @@
       <c r="H218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="2:8">
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9">
       <c r="B219">
         <v>71.72</v>
       </c>
@@ -5440,8 +6097,11 @@
       <c r="H219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="2:8">
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9">
       <c r="B220">
         <v>70.77</v>
       </c>
@@ -5463,8 +6123,11 @@
       <c r="H220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="2:8">
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9">
       <c r="B221">
         <v>84.73999999999999</v>
       </c>
@@ -5486,8 +6149,11 @@
       <c r="H221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="2:8">
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9">
       <c r="B222">
         <v>73.81999999999999</v>
       </c>
@@ -5509,8 +6175,11 @@
       <c r="H222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="2:8">
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9">
       <c r="B223">
         <v>76.2</v>
       </c>
@@ -5532,8 +6201,11 @@
       <c r="H223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="2:8">
+      <c r="I223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9">
       <c r="B224">
         <v>104.29</v>
       </c>
@@ -5555,8 +6227,11 @@
       <c r="H224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="2:8">
+      <c r="I224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9">
       <c r="B225">
         <v>72.48999999999999</v>
       </c>
@@ -5578,8 +6253,11 @@
       <c r="H225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="2:8">
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9">
       <c r="B226">
         <v>78.77</v>
       </c>
@@ -5601,8 +6279,11 @@
       <c r="H226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="2:8">
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9">
       <c r="B227">
         <v>71.06</v>
       </c>
@@ -5624,8 +6305,11 @@
       <c r="H227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="2:8">
+      <c r="I227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9">
       <c r="B228">
         <v>75.95999999999999</v>
       </c>
@@ -5647,8 +6331,11 @@
       <c r="H228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="2:8">
+      <c r="I228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9">
       <c r="B229">
         <v>78.90000000000001</v>
       </c>
@@ -5670,8 +6357,11 @@
       <c r="H229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="2:8">
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9">
       <c r="B230">
         <v>73.68000000000001</v>
       </c>
@@ -5693,8 +6383,11 @@
       <c r="H230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="2:8">
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9">
       <c r="B231">
         <v>57.46</v>
       </c>
@@ -5716,8 +6409,11 @@
       <c r="H231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="2:8">
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9">
       <c r="B232">
         <v>76.06</v>
       </c>
@@ -5739,8 +6435,11 @@
       <c r="H232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="2:8">
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9">
       <c r="B233">
         <v>71.68000000000001</v>
       </c>
@@ -5762,8 +6461,11 @@
       <c r="H233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="2:8">
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9">
       <c r="B234">
         <v>71.02</v>
       </c>
@@ -5785,8 +6487,11 @@
       <c r="H234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="2:8">
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9">
       <c r="B235">
         <v>79.04000000000001</v>
       </c>
@@ -5808,8 +6513,11 @@
       <c r="H235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="2:8">
+      <c r="I235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9">
       <c r="B236">
         <v>89.56999999999999</v>
       </c>
@@ -5831,8 +6539,11 @@
       <c r="H236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="2:8">
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9">
       <c r="B237">
         <v>72.45</v>
       </c>
@@ -5854,8 +6565,11 @@
       <c r="H237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="2:8">
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9">
       <c r="B238">
         <v>68.70999999999999</v>
       </c>
@@ -5877,8 +6591,11 @@
       <c r="H238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="2:8">
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9">
       <c r="B239">
         <v>83.8</v>
       </c>
@@ -5900,8 +6617,11 @@
       <c r="H239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="2:8">
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9">
       <c r="B240">
         <v>61.64</v>
       </c>
@@ -5923,8 +6643,11 @@
       <c r="H240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="2:8">
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:9">
       <c r="B241">
         <v>75.12</v>
       </c>
@@ -5946,8 +6669,11 @@
       <c r="H241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="2:8">
+      <c r="I241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:9">
       <c r="B242">
         <v>108.25</v>
       </c>
@@ -5969,8 +6695,11 @@
       <c r="H242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="2:8">
+      <c r="I242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:9">
       <c r="B243">
         <v>141.25</v>
       </c>
@@ -5992,8 +6721,11 @@
       <c r="H243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="2:8">
+      <c r="I243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:9">
       <c r="B244">
         <v>117.52</v>
       </c>
@@ -6015,8 +6747,11 @@
       <c r="H244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="2:8">
+      <c r="I244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:9">
       <c r="B245">
         <v>93.47</v>
       </c>
@@ -6038,8 +6773,11 @@
       <c r="H245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="2:8">
+      <c r="I245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:9">
       <c r="B246">
         <v>150.21</v>
       </c>
@@ -6061,8 +6799,11 @@
       <c r="H246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="2:8">
+      <c r="I246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:9">
       <c r="B247">
         <v>115.57</v>
       </c>
@@ -6084,8 +6825,11 @@
       <c r="H247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="2:8">
+      <c r="I247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:9">
       <c r="B248">
         <v>136.9</v>
       </c>
@@ -6107,8 +6851,11 @@
       <c r="H248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="2:8">
+      <c r="I248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:9">
       <c r="B249">
         <v>111.92</v>
       </c>
@@ -6130,8 +6877,11 @@
       <c r="H249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="2:8">
+      <c r="I249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:9">
       <c r="B250">
         <v>156.7</v>
       </c>
@@ -6153,8 +6903,11 @@
       <c r="H250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="2:8">
+      <c r="I250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:9">
       <c r="B251">
         <v>140.46</v>
       </c>
@@ -6176,8 +6929,11 @@
       <c r="H251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="2:8">
+      <c r="I251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:9">
       <c r="B252">
         <v>114.58</v>
       </c>
@@ -6199,8 +6955,11 @@
       <c r="H252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="2:8">
+      <c r="I252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:9">
       <c r="B253">
         <v>139.03</v>
       </c>
@@ -6222,8 +6981,11 @@
       <c r="H253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="2:8">
+      <c r="I253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:9">
       <c r="B254">
         <v>119.8</v>
       </c>
@@ -6245,8 +7007,11 @@
       <c r="H254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="2:8">
+      <c r="I254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:9">
       <c r="B255">
         <v>145.04</v>
       </c>
@@ -6268,8 +7033,11 @@
       <c r="H255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="2:8">
+      <c r="I255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:9">
       <c r="B256">
         <v>143.15</v>
       </c>
@@ -6291,8 +7059,11 @@
       <c r="H256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="2:8">
+      <c r="I256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9">
       <c r="B257">
         <v>119.92</v>
       </c>
@@ -6314,8 +7085,11 @@
       <c r="H257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="2:8">
+      <c r="I257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9">
       <c r="B258">
         <v>122.91</v>
       </c>
@@ -6337,8 +7111,11 @@
       <c r="H258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="2:8">
+      <c r="I258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9">
       <c r="B259">
         <v>93.2</v>
       </c>
@@ -6360,8 +7137,11 @@
       <c r="H259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="2:8">
+      <c r="I259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9">
       <c r="B260">
         <v>167.1</v>
       </c>
@@ -6383,8 +7163,11 @@
       <c r="H260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="2:8">
+      <c r="I260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9">
       <c r="B261">
         <v>130.17</v>
       </c>
@@ -6406,8 +7189,11 @@
       <c r="H261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="2:8">
+      <c r="I261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9">
       <c r="B262">
         <v>148.2</v>
       </c>
@@ -6429,8 +7215,11 @@
       <c r="H262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="2:8">
+      <c r="I262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9">
       <c r="B263">
         <v>154.87</v>
       </c>
@@ -6452,8 +7241,11 @@
       <c r="H263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="2:8">
+      <c r="I263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9">
       <c r="B264">
         <v>145.24</v>
       </c>
@@ -6475,8 +7267,11 @@
       <c r="H264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="2:8">
+      <c r="I264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9">
       <c r="B265">
         <v>125</v>
       </c>
@@ -6498,8 +7293,11 @@
       <c r="H265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="2:8">
+      <c r="I265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9">
       <c r="B266">
         <v>104.52</v>
       </c>
@@ -6521,8 +7319,11 @@
       <c r="H266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="2:8">
+      <c r="I266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9">
       <c r="B267">
         <v>118.1</v>
       </c>
@@ -6544,8 +7345,11 @@
       <c r="H267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="2:8">
+      <c r="I267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9">
       <c r="B268">
         <v>126.18</v>
       </c>
@@ -6567,8 +7371,11 @@
       <c r="H268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="2:8">
+      <c r="I268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9">
       <c r="B269">
         <v>151.57</v>
       </c>
@@ -6590,8 +7397,11 @@
       <c r="H269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="2:8">
+      <c r="I269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9">
       <c r="B270">
         <v>137</v>
       </c>
@@ -6613,8 +7423,11 @@
       <c r="H270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="2:8">
+      <c r="I270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9">
       <c r="B271">
         <v>160.25</v>
       </c>
@@ -6636,8 +7449,11 @@
       <c r="H271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="2:8">
+      <c r="I271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9">
       <c r="B272">
         <v>142.54</v>
       </c>
@@ -6659,8 +7475,11 @@
       <c r="H272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="2:8">
+      <c r="I272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9">
       <c r="B273">
         <v>137.4</v>
       </c>
@@ -6682,8 +7501,11 @@
       <c r="H273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="2:8">
+      <c r="I273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9">
       <c r="B274">
         <v>122.39</v>
       </c>
@@ -6705,8 +7527,11 @@
       <c r="H274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="2:8">
+      <c r="I274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9">
       <c r="B275">
         <v>145.28</v>
       </c>
@@ -6728,8 +7553,11 @@
       <c r="H275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="2:8">
+      <c r="I275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9">
       <c r="B276">
         <v>117.35</v>
       </c>
@@ -6751,8 +7579,11 @@
       <c r="H276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="2:8">
+      <c r="I276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9">
       <c r="B277">
         <v>110.8</v>
       </c>
@@ -6774,8 +7605,11 @@
       <c r="H277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="2:8">
+      <c r="I277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9">
       <c r="B278">
         <v>148.02</v>
       </c>
@@ -6797,8 +7631,11 @@
       <c r="H278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="2:8">
+      <c r="I278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9">
       <c r="B279">
         <v>115</v>
       </c>
@@ -6820,8 +7657,11 @@
       <c r="H279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="2:8">
+      <c r="I279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9">
       <c r="B280">
         <v>151.67</v>
       </c>
@@ -6843,8 +7683,11 @@
       <c r="H280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="2:8">
+      <c r="I280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9">
       <c r="B281">
         <v>109.52</v>
       </c>
@@ -6866,8 +7709,11 @@
       <c r="H281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="2:8">
+      <c r="I281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9">
       <c r="B282">
         <v>116.29</v>
       </c>
@@ -6889,8 +7735,11 @@
       <c r="H282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="2:8">
+      <c r="I282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9">
       <c r="B283">
         <v>129.44</v>
       </c>
@@ -6912,8 +7761,11 @@
       <c r="H283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="2:8">
+      <c r="I283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9">
       <c r="B284">
         <v>136.24</v>
       </c>
@@ -6935,8 +7787,11 @@
       <c r="H284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="2:8">
+      <c r="I284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9">
       <c r="B285">
         <v>109.54</v>
       </c>
@@ -6958,8 +7813,11 @@
       <c r="H285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="2:8">
+      <c r="I285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9">
       <c r="B286">
         <v>134.75</v>
       </c>
@@ -6981,8 +7839,11 @@
       <c r="H286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="2:8">
+      <c r="I286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9">
       <c r="B287">
         <v>144.46</v>
       </c>
@@ -7004,8 +7865,11 @@
       <c r="H287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="2:8">
+      <c r="I287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9">
       <c r="B288">
         <v>110.7</v>
       </c>
@@ -7027,8 +7891,11 @@
       <c r="H288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="2:8">
+      <c r="I288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9">
       <c r="B289">
         <v>99.56999999999999</v>
       </c>
@@ -7050,8 +7917,11 @@
       <c r="H289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="2:8">
+      <c r="I289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9">
       <c r="B290">
         <v>176.02</v>
       </c>
@@ -7073,8 +7943,11 @@
       <c r="H290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="2:8">
+      <c r="I290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9">
       <c r="B291">
         <v>91.8</v>
       </c>
@@ -7096,8 +7969,11 @@
       <c r="H291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="2:8">
+      <c r="I291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9">
       <c r="B292">
         <v>139.27</v>
       </c>
@@ -7119,8 +7995,11 @@
       <c r="H292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="2:8">
+      <c r="I292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9">
       <c r="B293">
         <v>155.14</v>
       </c>
@@ -7142,8 +8021,11 @@
       <c r="H293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="2:8">
+      <c r="I293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9">
       <c r="B294">
         <v>105.22</v>
       </c>
@@ -7165,8 +8047,11 @@
       <c r="H294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="2:8">
+      <c r="I294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9">
       <c r="B295">
         <v>108.42</v>
       </c>
@@ -7188,8 +8073,11 @@
       <c r="H295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="2:8">
+      <c r="I295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9">
       <c r="B296">
         <v>117.92</v>
       </c>
@@ -7211,8 +8099,11 @@
       <c r="H296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="2:8">
+      <c r="I296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9">
       <c r="B297">
         <v>182.44</v>
       </c>
@@ -7234,8 +8125,11 @@
       <c r="H297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="2:8">
+      <c r="I297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9">
       <c r="B298">
         <v>113.04</v>
       </c>
@@ -7257,8 +8151,11 @@
       <c r="H298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="2:8">
+      <c r="I298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9">
       <c r="B299">
         <v>126.74</v>
       </c>
@@ -7280,8 +8177,11 @@
       <c r="H299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="2:8">
+      <c r="I299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9">
       <c r="B300">
         <v>90.17</v>
       </c>
@@ -7303,8 +8203,11 @@
       <c r="H300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="2:8">
+      <c r="I300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9">
       <c r="B301">
         <v>120.36</v>
       </c>
@@ -7326,8 +8229,11 @@
       <c r="H301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="2:8">
+      <c r="I301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9">
       <c r="B302">
         <v>156.47</v>
       </c>
@@ -7349,8 +8255,11 @@
       <c r="H302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="2:8">
+      <c r="I302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9">
       <c r="B303">
         <v>167.45</v>
       </c>
@@ -7372,8 +8281,11 @@
       <c r="H303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="2:8">
+      <c r="I303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9">
       <c r="B304">
         <v>136.07</v>
       </c>
@@ -7395,8 +8307,11 @@
       <c r="H304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="2:8">
+      <c r="I304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9">
       <c r="B305">
         <v>135.23</v>
       </c>
@@ -7418,8 +8333,11 @@
       <c r="H305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="2:8">
+      <c r="I305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9">
       <c r="B306">
         <v>137.64</v>
       </c>
@@ -7441,8 +8359,11 @@
       <c r="H306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="2:8">
+      <c r="I306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9">
       <c r="B307">
         <v>101.8</v>
       </c>
@@ -7464,8 +8385,11 @@
       <c r="H307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="2:8">
+      <c r="I307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9">
       <c r="B308">
         <v>148.04</v>
       </c>
@@ -7487,8 +8411,11 @@
       <c r="H308">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="2:8">
+      <c r="I308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9">
       <c r="B309">
         <v>119.59</v>
       </c>
@@ -7510,8 +8437,11 @@
       <c r="H309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="2:8">
+      <c r="I309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9">
       <c r="B310">
         <v>134.56</v>
       </c>
@@ -7533,8 +8463,11 @@
       <c r="H310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="2:8">
+      <c r="I310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:9">
       <c r="B311">
         <v>104.61</v>
       </c>
@@ -7556,8 +8489,11 @@
       <c r="H311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="2:8">
+      <c r="I311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9">
       <c r="B312">
         <v>141.24</v>
       </c>
@@ -7579,8 +8515,11 @@
       <c r="H312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="2:8">
+      <c r="I312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:9">
       <c r="B313">
         <v>124.6</v>
       </c>
@@ -7602,8 +8541,11 @@
       <c r="H313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="2:8">
+      <c r="I313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9">
       <c r="B314">
         <v>152.66</v>
       </c>
@@ -7625,8 +8567,11 @@
       <c r="H314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="2:8">
+      <c r="I314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:9">
       <c r="B315">
         <v>116.35</v>
       </c>
@@ -7648,8 +8593,11 @@
       <c r="H315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="2:8">
+      <c r="I315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9">
       <c r="B316">
         <v>119.21</v>
       </c>
@@ -7671,8 +8619,11 @@
       <c r="H316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="2:8">
+      <c r="I316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9">
       <c r="B317">
         <v>134.75</v>
       </c>
@@ -7694,8 +8645,11 @@
       <c r="H317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="2:8">
+      <c r="I317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9">
       <c r="B318">
         <v>118.7</v>
       </c>
@@ -7717,8 +8671,11 @@
       <c r="H318">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="2:8">
+      <c r="I318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9">
       <c r="B319">
         <v>147.25</v>
       </c>
@@ -7740,8 +8697,11 @@
       <c r="H319">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="2:8">
+      <c r="I319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:9">
       <c r="B320">
         <v>120.32</v>
       </c>
@@ -7763,8 +8723,11 @@
       <c r="H320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="2:8">
+      <c r="I320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9">
       <c r="B321">
         <v>101.52</v>
       </c>
@@ -7786,8 +8749,11 @@
       <c r="H321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="2:8">
+      <c r="I321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9">
       <c r="B322">
         <v>110.51</v>
       </c>
@@ -7809,8 +8775,11 @@
       <c r="H322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="2:8">
+      <c r="I322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9">
       <c r="B323">
         <v>109.1</v>
       </c>
@@ -7832,8 +8801,11 @@
       <c r="H323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="2:8">
+      <c r="I323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9">
       <c r="B324">
         <v>97.72</v>
       </c>
@@ -7855,8 +8827,11 @@
       <c r="H324">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="2:8">
+      <c r="I324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:9">
       <c r="B325">
         <v>143.32</v>
       </c>
@@ -7878,8 +8853,11 @@
       <c r="H325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="2:8">
+      <c r="I325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:9">
       <c r="B326">
         <v>127.2</v>
       </c>
@@ -7901,8 +8879,11 @@
       <c r="H326">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="2:8">
+      <c r="I326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="2:9">
       <c r="B327">
         <v>128.4</v>
       </c>
@@ -7924,8 +8905,11 @@
       <c r="H327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="2:8">
+      <c r="I327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:9">
       <c r="B328">
         <v>108.17</v>
       </c>
@@ -7947,8 +8931,11 @@
       <c r="H328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="2:8">
+      <c r="I328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:9">
       <c r="B329">
         <v>163.24</v>
       </c>
@@ -7970,8 +8957,11 @@
       <c r="H329">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="2:8">
+      <c r="I329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="2:9">
       <c r="B330">
         <v>146.27</v>
       </c>
@@ -7993,8 +8983,11 @@
       <c r="H330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="2:8">
+      <c r="I330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:9">
       <c r="B331">
         <v>141.5</v>
       </c>
@@ -8016,8 +9009,11 @@
       <c r="H331">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="2:8">
+      <c r="I331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="2:9">
       <c r="B332">
         <v>119.84</v>
       </c>
@@ -8039,8 +9035,11 @@
       <c r="H332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="2:8">
+      <c r="I332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:9">
       <c r="B333">
         <v>87.15000000000001</v>
       </c>
@@ -8062,8 +9061,11 @@
       <c r="H333">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="2:8">
+      <c r="I333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:9">
       <c r="B334">
         <v>96.38</v>
       </c>
@@ -8085,8 +9087,11 @@
       <c r="H334">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="2:8">
+      <c r="I334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:9">
       <c r="B335">
         <v>120.39</v>
       </c>
@@ -8108,8 +9113,11 @@
       <c r="H335">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="2:8">
+      <c r="I335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:9">
       <c r="B336">
         <v>123.14</v>
       </c>
@@ -8131,8 +9139,11 @@
       <c r="H336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="2:8">
+      <c r="I336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:9">
       <c r="B337">
         <v>155.1</v>
       </c>
@@ -8154,8 +9165,11 @@
       <c r="H337">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="2:8">
+      <c r="I337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:9">
       <c r="B338">
         <v>125.5</v>
       </c>
@@ -8177,8 +9191,11 @@
       <c r="H338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="2:8">
+      <c r="I338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:9">
       <c r="B339">
         <v>133.71</v>
       </c>
@@ -8200,8 +9217,11 @@
       <c r="H339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="2:8">
+      <c r="I339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:9">
       <c r="B340">
         <v>131.71</v>
       </c>
@@ -8223,8 +9243,11 @@
       <c r="H340">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="2:8">
+      <c r="I340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:9">
       <c r="B341">
         <v>140.07</v>
       </c>
@@ -8246,8 +9269,11 @@
       <c r="H341">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="2:8">
+      <c r="I341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:9">
       <c r="B342">
         <v>152.87</v>
       </c>
@@ -8269,8 +9295,11 @@
       <c r="H342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="2:8">
+      <c r="I342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:9">
       <c r="B343">
         <v>130.13</v>
       </c>
@@ -8292,8 +9321,11 @@
       <c r="H343">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="2:8">
+      <c r="I343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:9">
       <c r="B344">
         <v>121.47</v>
       </c>
@@ -8315,8 +9347,11 @@
       <c r="H344">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="2:8">
+      <c r="I344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="2:9">
       <c r="B345">
         <v>175.06</v>
       </c>
@@ -8338,8 +9373,11 @@
       <c r="H345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="2:8">
+      <c r="I345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9">
       <c r="B346">
         <v>112.05</v>
       </c>
@@ -8361,8 +9399,11 @@
       <c r="H346">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="2:8">
+      <c r="I346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:9">
       <c r="B347">
         <v>123.21</v>
       </c>
@@ -8384,8 +9425,11 @@
       <c r="H347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="2:8">
+      <c r="I347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9">
       <c r="B348">
         <v>151.09</v>
       </c>
@@ -8407,8 +9451,11 @@
       <c r="H348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="2:8">
+      <c r="I348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:9">
       <c r="B349">
         <v>141.07</v>
       </c>
@@ -8430,8 +9477,11 @@
       <c r="H349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="2:8">
+      <c r="I349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:9">
       <c r="B350">
         <v>128.82</v>
       </c>
@@ -8453,8 +9503,11 @@
       <c r="H350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="2:8">
+      <c r="I350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:9">
       <c r="B351">
         <v>119.84</v>
       </c>
@@ -8476,8 +9529,11 @@
       <c r="H351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="2:8">
+      <c r="I351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:9">
       <c r="B352">
         <v>109.84</v>
       </c>
@@ -8499,8 +9555,11 @@
       <c r="H352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="2:8">
+      <c r="I352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:9">
       <c r="B353">
         <v>144.79</v>
       </c>
@@ -8522,8 +9581,11 @@
       <c r="H353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="2:8">
+      <c r="I353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:9">
       <c r="B354">
         <v>173.35</v>
       </c>
@@ -8545,8 +9607,11 @@
       <c r="H354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="2:8">
+      <c r="I354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:9">
       <c r="B355">
         <v>131.19</v>
       </c>
@@ -8568,8 +9633,11 @@
       <c r="H355">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="2:8">
+      <c r="I355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="2:9">
       <c r="B356">
         <v>126.09</v>
       </c>
@@ -8591,8 +9659,11 @@
       <c r="H356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="2:8">
+      <c r="I356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:9">
       <c r="B357">
         <v>125.02</v>
       </c>
@@ -8614,8 +9685,11 @@
       <c r="H357">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="2:8">
+      <c r="I357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:9">
       <c r="B358">
         <v>93.81999999999999</v>
       </c>
@@ -8637,8 +9711,11 @@
       <c r="H358">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="2:8">
+      <c r="I358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:9">
       <c r="B359">
         <v>168.62</v>
       </c>
@@ -8660,8 +9737,11 @@
       <c r="H359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="2:8">
+      <c r="I359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="2:9">
       <c r="B360">
         <v>135.33</v>
       </c>
@@ -8683,8 +9763,11 @@
       <c r="H360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="2:8">
+      <c r="I360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:9">
       <c r="B361">
         <v>129.2</v>
       </c>
@@ -8706,8 +9789,11 @@
       <c r="H361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="2:8">
+      <c r="I361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:9">
       <c r="B362">
         <v>198.67</v>
       </c>
@@ -8729,8 +9815,11 @@
       <c r="H362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="2:8">
+      <c r="I362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:9">
       <c r="B363">
         <v>163.91</v>
       </c>
@@ -8752,8 +9841,11 @@
       <c r="H363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="2:8">
+      <c r="I363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:9">
       <c r="B364">
         <v>169.86</v>
       </c>
@@ -8775,8 +9867,11 @@
       <c r="H364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="2:8">
+      <c r="I364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:9">
       <c r="B365">
         <v>215.34</v>
       </c>
@@ -8798,8 +9893,11 @@
       <c r="H365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="2:8">
+      <c r="I365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="2:9">
       <c r="B366">
         <v>198.79</v>
       </c>
@@ -8821,8 +9919,11 @@
       <c r="H366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="2:8">
+      <c r="I366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:9">
       <c r="B367">
         <v>145.5</v>
       </c>
@@ -8844,8 +9945,11 @@
       <c r="H367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="2:8">
+      <c r="I367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="2:9">
       <c r="B368">
         <v>242.37</v>
       </c>
@@ -8867,8 +9971,11 @@
       <c r="H368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="2:8">
+      <c r="I368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="2:9">
       <c r="B369">
         <v>171.31</v>
       </c>
@@ -8890,8 +9997,11 @@
       <c r="H369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="2:8">
+      <c r="I369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="2:9">
       <c r="B370">
         <v>175.78</v>
       </c>
@@ -8913,8 +10023,11 @@
       <c r="H370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="2:8">
+      <c r="I370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="2:9">
       <c r="B371">
         <v>171.27</v>
       </c>
@@ -8936,8 +10049,11 @@
       <c r="H371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="2:8">
+      <c r="I371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="2:9">
       <c r="B372">
         <v>213.96</v>
       </c>
@@ -8959,8 +10075,11 @@
       <c r="H372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="2:8">
+      <c r="I372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:9">
       <c r="B373">
         <v>167.22</v>
       </c>
@@ -8982,8 +10101,11 @@
       <c r="H373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="2:8">
+      <c r="I373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:9">
       <c r="B374">
         <v>233.64</v>
       </c>
@@ -9005,8 +10127,11 @@
       <c r="H374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="2:8">
+      <c r="I374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="2:9">
       <c r="B375">
         <v>224.97</v>
       </c>
@@ -9028,8 +10153,11 @@
       <c r="H375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="2:8">
+      <c r="I375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="2:9">
       <c r="B376">
         <v>235.17</v>
       </c>
@@ -9051,8 +10179,11 @@
       <c r="H376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="2:8">
+      <c r="I376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="2:9">
       <c r="B377">
         <v>207.65</v>
       </c>
@@ -9074,8 +10205,11 @@
       <c r="H377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="2:8">
+      <c r="I377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="2:9">
       <c r="B378">
         <v>192.71</v>
       </c>
@@ -9097,8 +10231,11 @@
       <c r="H378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="2:8">
+      <c r="I378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="2:9">
       <c r="B379">
         <v>203.44</v>
       </c>
@@ -9120,8 +10257,11 @@
       <c r="H379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="2:8">
+      <c r="I379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="2:9">
       <c r="B380">
         <v>201.54</v>
       </c>
@@ -9143,8 +10283,11 @@
       <c r="H380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="2:8">
+      <c r="I380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="2:9">
       <c r="B381">
         <v>208.09</v>
       </c>
@@ -9166,8 +10309,11 @@
       <c r="H381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="2:8">
+      <c r="I381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="2:9">
       <c r="B382">
         <v>188.2</v>
       </c>
@@ -9189,8 +10335,11 @@
       <c r="H382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="2:8">
+      <c r="I382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="2:9">
       <c r="B383">
         <v>197.51</v>
       </c>
@@ -9212,8 +10361,11 @@
       <c r="H383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="2:8">
+      <c r="I383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="2:9">
       <c r="B384">
         <v>171.64</v>
       </c>
@@ -9235,8 +10387,11 @@
       <c r="H384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="2:8">
+      <c r="I384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="2:9">
       <c r="B385">
         <v>170.81</v>
       </c>
@@ -9258,8 +10413,11 @@
       <c r="H385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="2:8">
+      <c r="I385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="2:9">
       <c r="B386">
         <v>212.03</v>
       </c>
@@ -9281,8 +10439,11 @@
       <c r="H386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="2:8">
+      <c r="I386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="2:9">
       <c r="B387">
         <v>181.86</v>
       </c>
@@ -9304,8 +10465,11 @@
       <c r="H387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="2:8">
+      <c r="I387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="2:9">
       <c r="B388">
         <v>209.36</v>
       </c>
@@ -9327,8 +10491,11 @@
       <c r="H388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="2:8">
+      <c r="I388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="2:9">
       <c r="B389">
         <v>173.27</v>
       </c>
@@ -9350,8 +10517,11 @@
       <c r="H389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="2:8">
+      <c r="I389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="2:9">
       <c r="B390">
         <v>151.1</v>
       </c>
@@ -9373,8 +10543,11 @@
       <c r="H390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="2:8">
+      <c r="I390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="2:9">
       <c r="B391">
         <v>185.16</v>
       </c>
@@ -9396,8 +10569,11 @@
       <c r="H391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="2:8">
+      <c r="I391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="2:9">
       <c r="B392">
         <v>216.15</v>
       </c>
@@ -9419,8 +10595,11 @@
       <c r="H392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="2:8">
+      <c r="I392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="2:9">
       <c r="B393">
         <v>225.98</v>
       </c>
@@ -9442,8 +10621,11 @@
       <c r="H393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="2:8">
+      <c r="I393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="2:9">
       <c r="B394">
         <v>185.18</v>
       </c>
@@ -9465,8 +10647,11 @@
       <c r="H394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="2:8">
+      <c r="I394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="2:9">
       <c r="B395">
         <v>195.5</v>
       </c>
@@ -9488,8 +10673,11 @@
       <c r="H395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="2:8">
+      <c r="I395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="2:9">
       <c r="B396">
         <v>195.32</v>
       </c>
@@ -9511,8 +10699,11 @@
       <c r="H396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="2:8">
+      <c r="I396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="2:9">
       <c r="B397">
         <v>163.26</v>
       </c>
@@ -9534,8 +10725,11 @@
       <c r="H397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="2:8">
+      <c r="I397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="2:9">
       <c r="B398">
         <v>186.74</v>
       </c>
@@ -9557,8 +10751,11 @@
       <c r="H398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="2:8">
+      <c r="I398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="2:9">
       <c r="B399">
         <v>125.02</v>
       </c>
@@ -9580,8 +10777,11 @@
       <c r="H399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="2:8">
+      <c r="I399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="2:9">
       <c r="B400">
         <v>206.58</v>
       </c>
@@ -9603,8 +10803,11 @@
       <c r="H400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="2:8">
+      <c r="I400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="2:9">
       <c r="B401">
         <v>219.24</v>
       </c>
@@ -9626,8 +10829,11 @@
       <c r="H401">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="2:8">
+      <c r="I401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="2:9">
       <c r="B402">
         <v>237.18</v>
       </c>
@@ -9649,8 +10855,11 @@
       <c r="H402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="2:8">
+      <c r="I402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="2:9">
       <c r="B403">
         <v>198.27</v>
       </c>
@@ -9672,8 +10881,11 @@
       <c r="H403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="2:8">
+      <c r="I403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="2:9">
       <c r="B404">
         <v>273.84</v>
       </c>
@@ -9695,8 +10907,11 @@
       <c r="H404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="2:8">
+      <c r="I404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="2:9">
       <c r="B405">
         <v>247.36</v>
       </c>
@@ -9718,8 +10933,11 @@
       <c r="H405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="2:8">
+      <c r="I405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="2:9">
       <c r="B406">
         <v>245.08</v>
       </c>
@@ -9741,8 +10959,11 @@
       <c r="H406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="2:8">
+      <c r="I406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="2:9">
       <c r="B407">
         <v>264.66</v>
       </c>
@@ -9764,8 +10985,11 @@
       <c r="H407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="2:8">
+      <c r="I407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="2:9">
       <c r="B408">
         <v>222.29</v>
       </c>
@@ -9787,8 +11011,11 @@
       <c r="H408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="2:8">
+      <c r="I408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:9">
       <c r="B409">
         <v>249.22</v>
       </c>
@@ -9810,8 +11037,11 @@
       <c r="H409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="2:8">
+      <c r="I409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="2:9">
       <c r="B410">
         <v>237.85</v>
       </c>
@@ -9833,8 +11063,11 @@
       <c r="H410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="2:8">
+      <c r="I410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="2:9">
       <c r="B411">
         <v>217.22</v>
       </c>
@@ -9856,8 +11089,11 @@
       <c r="H411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="2:8">
+      <c r="I411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="2:9">
       <c r="B412">
         <v>226.28</v>
       </c>
@@ -9879,8 +11115,11 @@
       <c r="H412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="2:8">
+      <c r="I412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="2:9">
       <c r="B413">
         <v>286.84</v>
       </c>
@@ -9902,8 +11141,11 @@
       <c r="H413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="2:8">
+      <c r="I413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="2:9">
       <c r="B414">
         <v>246.17</v>
       </c>
@@ -9925,8 +11167,11 @@
       <c r="H414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="2:8">
+      <c r="I414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="2:9">
       <c r="B415">
         <v>193.6</v>
       </c>
@@ -9948,8 +11193,11 @@
       <c r="H415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="2:8">
+      <c r="I415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="2:9">
       <c r="B416">
         <v>262.24</v>
       </c>
@@ -9971,8 +11219,11 @@
       <c r="H416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="2:8">
+      <c r="I416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="2:9">
       <c r="B417">
         <v>235.4</v>
       </c>
@@ -9994,8 +11245,11 @@
       <c r="H417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="2:8">
+      <c r="I417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="2:9">
       <c r="B418">
         <v>230.13</v>
       </c>
@@ -10017,8 +11271,11 @@
       <c r="H418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="2:8">
+      <c r="I418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="2:9">
       <c r="B419">
         <v>252.74</v>
       </c>
@@ -10040,8 +11297,11 @@
       <c r="H419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="2:8">
+      <c r="I419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="2:9">
       <c r="B420">
         <v>241</v>
       </c>
@@ -10063,8 +11323,11 @@
       <c r="H420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="2:8">
+      <c r="I420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="2:9">
       <c r="B421">
         <v>236.22</v>
       </c>
@@ -10086,8 +11349,11 @@
       <c r="H421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="2:8">
+      <c r="I421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="2:9">
       <c r="B422">
         <v>262</v>
       </c>
@@ -10109,8 +11375,11 @@
       <c r="H422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="2:8">
+      <c r="I422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="2:9">
       <c r="B423">
         <v>254.58</v>
       </c>
@@ -10132,8 +11401,11 @@
       <c r="H423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="2:8">
+      <c r="I423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="2:9">
       <c r="B424">
         <v>284.44</v>
       </c>
@@ -10155,8 +11427,11 @@
       <c r="H424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="2:8">
+      <c r="I424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="2:9">
       <c r="B425">
         <v>217.79</v>
       </c>
@@ -10178,8 +11453,11 @@
       <c r="H425">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="2:8">
+      <c r="I425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="2:9">
       <c r="B426">
         <v>210.09</v>
       </c>
@@ -10201,8 +11479,11 @@
       <c r="H426">
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="2:8">
+      <c r="I426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="2:9">
       <c r="B427">
         <v>235.3</v>
       </c>
@@ -10224,8 +11505,11 @@
       <c r="H427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="2:8">
+      <c r="I427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="2:9">
       <c r="B428">
         <v>213.22</v>
       </c>
@@ -10247,8 +11531,11 @@
       <c r="H428">
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="2:8">
+      <c r="I428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="2:9">
       <c r="B429">
         <v>247.32</v>
       </c>
@@ -10270,8 +11557,11 @@
       <c r="H429">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="2:8">
+      <c r="I429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="2:9">
       <c r="B430">
         <v>249.4</v>
       </c>
@@ -10293,8 +11583,11 @@
       <c r="H430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="2:8">
+      <c r="I430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="2:9">
       <c r="B431">
         <v>231.44</v>
       </c>
@@ -10316,8 +11609,11 @@
       <c r="H431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="2:8">
+      <c r="I431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="2:9">
       <c r="B432">
         <v>213.08</v>
       </c>
@@ -10339,8 +11635,11 @@
       <c r="H432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="2:8">
+      <c r="I432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="2:9">
       <c r="B433">
         <v>220.24</v>
       </c>
@@ -10362,8 +11661,11 @@
       <c r="H433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="2:8">
+      <c r="I433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="2:9">
       <c r="B434">
         <v>243.75</v>
       </c>
@@ -10385,8 +11687,11 @@
       <c r="H434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="2:8">
+      <c r="I434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="2:9">
       <c r="B435">
         <v>248.09</v>
       </c>
@@ -10408,8 +11713,11 @@
       <c r="H435">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="2:8">
+      <c r="I435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="2:9">
       <c r="B436">
         <v>256.33</v>
       </c>
@@ -10431,8 +11739,11 @@
       <c r="H436">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="2:8">
+      <c r="I436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="2:9">
       <c r="B437">
         <v>241.04</v>
       </c>
@@ -10454,8 +11765,11 @@
       <c r="H437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="2:8">
+      <c r="I437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="2:9">
       <c r="B438">
         <v>219.72</v>
       </c>
@@ -10477,8 +11791,11 @@
       <c r="H438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="2:8">
+      <c r="I438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="2:9">
       <c r="B439">
         <v>256.82</v>
       </c>
@@ -10500,8 +11817,11 @@
       <c r="H439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="2:8">
+      <c r="I439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="2:9">
       <c r="B440">
         <v>255.08</v>
       </c>
@@ -10523,8 +11843,11 @@
       <c r="H440">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="2:8">
+      <c r="I440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="2:9">
       <c r="B441">
         <v>248.74</v>
       </c>
@@ -10546,8 +11869,11 @@
       <c r="H441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="2:8">
+      <c r="I441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="2:9">
       <c r="B442">
         <v>227.64</v>
       </c>
@@ -10569,8 +11895,11 @@
       <c r="H442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="2:8">
+      <c r="I442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="2:9">
       <c r="B443">
         <v>219.22</v>
       </c>
@@ -10592,8 +11921,11 @@
       <c r="H443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="2:8">
+      <c r="I443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="2:9">
       <c r="B444">
         <v>234.63</v>
       </c>
@@ -10615,8 +11947,11 @@
       <c r="H444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="2:8">
+      <c r="I444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="2:9">
       <c r="B445">
         <v>240.01</v>
       </c>
@@ -10638,8 +11973,11 @@
       <c r="H445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="2:8">
+      <c r="I445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="2:9">
       <c r="B446">
         <v>285.53</v>
       </c>
@@ -10661,8 +11999,11 @@
       <c r="H446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="2:8">
+      <c r="I446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="2:9">
       <c r="B447">
         <v>226.4</v>
       </c>
@@ -10684,8 +12025,11 @@
       <c r="H447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="2:8">
+      <c r="I447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="2:9">
       <c r="B448">
         <v>235.79</v>
       </c>
@@ -10707,8 +12051,11 @@
       <c r="H448">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="2:8">
+      <c r="I448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="2:9">
       <c r="B449">
         <v>223.28</v>
       </c>
@@ -10730,8 +12077,11 @@
       <c r="H449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="2:8">
+      <c r="I449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="2:9">
       <c r="B450">
         <v>242.31</v>
       </c>
@@ -10753,8 +12103,11 @@
       <c r="H450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="2:8">
+      <c r="I450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="2:9">
       <c r="B451">
         <v>250.58</v>
       </c>
@@ -10776,8 +12129,11 @@
       <c r="H451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="2:8">
+      <c r="I451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="2:9">
       <c r="B452">
         <v>224.66</v>
       </c>
@@ -10799,8 +12155,11 @@
       <c r="H452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="2:8">
+      <c r="I452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="2:9">
       <c r="B453">
         <v>236.19</v>
       </c>
@@ -10822,8 +12181,11 @@
       <c r="H453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="2:8">
+      <c r="I453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="2:9">
       <c r="B454">
         <v>249.27</v>
       </c>
@@ -10845,8 +12207,11 @@
       <c r="H454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="2:8">
+      <c r="I454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="2:9">
       <c r="B455">
         <v>243.25</v>
       </c>
@@ -10868,8 +12233,11 @@
       <c r="H455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="2:8">
+      <c r="I455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="2:9">
       <c r="B456">
         <v>217.25</v>
       </c>
@@ -10891,8 +12259,11 @@
       <c r="H456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="2:8">
+      <c r="I456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="2:9">
       <c r="B457">
         <v>248.22</v>
       </c>
@@ -10914,8 +12285,11 @@
       <c r="H457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="2:8">
+      <c r="I457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="2:9">
       <c r="B458">
         <v>220.84</v>
       </c>
@@ -10937,8 +12311,11 @@
       <c r="H458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="2:8">
+      <c r="I458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="2:9">
       <c r="B459">
         <v>238.77</v>
       </c>
@@ -10960,8 +12337,11 @@
       <c r="H459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="2:8">
+      <c r="I459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="2:9">
       <c r="B460">
         <v>248.32</v>
       </c>
@@ -10983,8 +12363,11 @@
       <c r="H460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="2:8">
+      <c r="I460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="2:9">
       <c r="B461">
         <v>256.82</v>
       </c>
@@ -11006,8 +12389,11 @@
       <c r="H461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="2:8">
+      <c r="I461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="2:9">
       <c r="B462">
         <v>230</v>
       </c>
@@ -11029,8 +12415,11 @@
       <c r="H462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="2:8">
+      <c r="I462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="2:9">
       <c r="B463">
         <v>262.93</v>
       </c>
@@ -11052,8 +12441,11 @@
       <c r="H463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="2:8">
+      <c r="I463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="2:9">
       <c r="B464">
         <v>240.57</v>
       </c>
@@ -11075,8 +12467,11 @@
       <c r="H464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="2:8">
+      <c r="I464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="2:9">
       <c r="B465">
         <v>189.02</v>
       </c>
@@ -11098,8 +12493,11 @@
       <c r="H465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="2:8">
+      <c r="I465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="2:9">
       <c r="B466">
         <v>200.47</v>
       </c>
@@ -11121,8 +12519,11 @@
       <c r="H466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="2:8">
+      <c r="I466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="2:9">
       <c r="B467">
         <v>191.2</v>
       </c>
@@ -11144,8 +12545,11 @@
       <c r="H467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="2:8">
+      <c r="I467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="2:9">
       <c r="B468">
         <v>242.85</v>
       </c>
@@ -11167,8 +12571,11 @@
       <c r="H468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="2:8">
+      <c r="I468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="2:9">
       <c r="B469">
         <v>234.31</v>
       </c>
@@ -11190,8 +12597,11 @@
       <c r="H469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="2:8">
+      <c r="I469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="2:9">
       <c r="B470">
         <v>231.34</v>
       </c>
@@ -11213,8 +12623,11 @@
       <c r="H470">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="2:8">
+      <c r="I470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="2:9">
       <c r="B471">
         <v>130.1</v>
       </c>
@@ -11236,8 +12649,11 @@
       <c r="H471">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="2:8">
+      <c r="I471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="2:9">
       <c r="B472">
         <v>209.89</v>
       </c>
@@ -11259,8 +12675,11 @@
       <c r="H472">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="2:8">
+      <c r="I472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="2:9">
       <c r="B473">
         <v>220.04</v>
       </c>
@@ -11282,8 +12701,11 @@
       <c r="H473">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="2:8">
+      <c r="I473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="2:9">
       <c r="B474">
         <v>164.67</v>
       </c>
@@ -11305,8 +12727,11 @@
       <c r="H474">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="2:8">
+      <c r="I474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="2:9">
       <c r="B475">
         <v>224.58</v>
       </c>
@@ -11326,6 +12751,9 @@
         <v>2.5</v>
       </c>
       <c r="H475">
+        <v>0</v>
+      </c>
+      <c r="I475">
         <v>0</v>
       </c>
     </row>
